--- a/GATEWAY/A1#111#YOOMULTIMEDIAX1/YOO-Multimedia-SRL/YOOMULTIMEDIA-FSE-GATEWAY/1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#YOOMULTIMEDIAX1/YOO-Multimedia-SRL/YOOMULTIMEDIA-FSE-GATEWAY/1.0.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="446">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1416,6 +1416,9 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.8c4dd84533^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t xml:space="preserve">Campo valorizzabile tramite selezione da un set di valori ammessi</t>
+  </si>
+  <si>
     <t xml:space="preserve">PASS</t>
   </si>
   <si>
@@ -1639,9 +1642,6 @@
   </si>
   <si>
     <t xml:space="preserve">Campo valorizzato in automatico tramite dati recuperati da servizi esterni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campo valorizzabile tramite selezione da un set di valori ammessi</t>
   </si>
   <si>
     <t xml:space="preserve">L’applicativo effettua controlli preventivi sul dato inserito</t>
@@ -2044,7 +2044,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2211,6 +2211,10 @@
     </xf>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2588,7 +2592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="206.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="141.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -3723,11 +3727,11 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B127" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="H159" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A127" activeCellId="0" sqref="A127"/>
-      <selection pane="bottomRight" activeCell="H171" activeCellId="0" sqref="H171"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A159" activeCellId="0" sqref="A159"/>
+      <selection pane="bottomRight" activeCell="K159" activeCellId="0" sqref="K159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9691,7 +9695,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="92.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="87.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="30" t="n">
         <v>443</v>
       </c>
@@ -9761,7 +9765,9 @@
       <c r="J164" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="K164" s="34"/>
+      <c r="K164" s="34" t="s">
+        <v>350</v>
+      </c>
       <c r="L164" s="34"/>
       <c r="M164" s="34" t="s">
         <v>342</v>
@@ -9783,7 +9789,7 @@
         <v>79</v>
       </c>
       <c r="T164" s="34" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U164" s="35"/>
       <c r="V164" s="36"/>
@@ -9802,27 +9808,29 @@
         <v>56</v>
       </c>
       <c r="D165" s="30" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E165" s="31" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F165" s="33" t="n">
         <v>45901</v>
       </c>
       <c r="G165" s="40" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H165" s="40" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I165" s="41" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J165" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="K165" s="34"/>
+      <c r="K165" s="34" t="s">
+        <v>350</v>
+      </c>
       <c r="L165" s="34"/>
       <c r="M165" s="34" t="s">
         <v>342</v>
@@ -9844,7 +9852,7 @@
         <v>79</v>
       </c>
       <c r="T165" s="34" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U165" s="35"/>
       <c r="V165" s="36"/>
@@ -9863,10 +9871,10 @@
         <v>60</v>
       </c>
       <c r="D166" s="30" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E166" s="31" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F166" s="33"/>
       <c r="G166" s="33"/>
@@ -9900,10 +9908,10 @@
         <v>60</v>
       </c>
       <c r="D167" s="30" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E167" s="31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F167" s="33"/>
       <c r="G167" s="33"/>
@@ -9937,10 +9945,10 @@
         <v>54</v>
       </c>
       <c r="D168" s="30" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E168" s="31" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F168" s="33"/>
       <c r="G168" s="33"/>
@@ -9974,10 +9982,10 @@
         <v>54</v>
       </c>
       <c r="D169" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E169" s="31" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F169" s="33"/>
       <c r="G169" s="33"/>
@@ -10011,10 +10019,10 @@
         <v>47</v>
       </c>
       <c r="D170" s="30" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E170" s="31" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F170" s="33"/>
       <c r="G170" s="33"/>
@@ -10048,10 +10056,10 @@
         <v>66</v>
       </c>
       <c r="D171" s="30" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E171" s="31" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F171" s="33"/>
       <c r="G171" s="33"/>
@@ -10085,10 +10093,10 @@
         <v>66</v>
       </c>
       <c r="D172" s="30" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E172" s="31" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F172" s="33"/>
       <c r="G172" s="33"/>
@@ -10122,10 +10130,10 @@
         <v>64</v>
       </c>
       <c r="D173" s="30" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E173" s="31" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F173" s="33"/>
       <c r="G173" s="33"/>
@@ -10159,10 +10167,10 @@
         <v>64</v>
       </c>
       <c r="D174" s="30" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E174" s="31" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F174" s="33"/>
       <c r="G174" s="33"/>
@@ -10196,10 +10204,10 @@
         <v>62</v>
       </c>
       <c r="D175" s="30" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E175" s="31" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F175" s="33"/>
       <c r="G175" s="33"/>
@@ -10233,10 +10241,10 @@
         <v>62</v>
       </c>
       <c r="D176" s="30" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E176" s="31" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F176" s="33"/>
       <c r="G176" s="33"/>
@@ -10270,10 +10278,10 @@
         <v>313</v>
       </c>
       <c r="D177" s="30" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E177" s="31" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F177" s="33"/>
       <c r="G177" s="33"/>
@@ -10307,10 +10315,10 @@
         <v>60</v>
       </c>
       <c r="D178" s="30" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E178" s="31" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F178" s="30"/>
       <c r="G178" s="30"/>
@@ -10344,10 +10352,10 @@
         <v>58</v>
       </c>
       <c r="D179" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E179" s="31" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F179" s="30"/>
       <c r="G179" s="30"/>
@@ -10381,10 +10389,10 @@
         <v>66</v>
       </c>
       <c r="D180" s="30" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E180" s="31" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F180" s="30"/>
       <c r="G180" s="30"/>
@@ -10418,10 +10426,10 @@
         <v>62</v>
       </c>
       <c r="D181" s="30" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E181" s="31" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F181" s="30"/>
       <c r="G181" s="30"/>
@@ -10455,10 +10463,10 @@
         <v>64</v>
       </c>
       <c r="D182" s="30" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E182" s="31" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F182" s="30"/>
       <c r="G182" s="30"/>
@@ -10492,10 +10500,10 @@
         <v>47</v>
       </c>
       <c r="D183" s="30" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E183" s="31" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F183" s="30"/>
       <c r="G183" s="30"/>
@@ -10529,10 +10537,10 @@
         <v>54</v>
       </c>
       <c r="D184" s="30" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E184" s="31" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F184" s="30"/>
       <c r="G184" s="30"/>
@@ -10566,10 +10574,10 @@
         <v>60</v>
       </c>
       <c r="D185" s="30" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E185" s="31" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F185" s="30"/>
       <c r="G185" s="30"/>
@@ -10603,10 +10611,10 @@
         <v>56</v>
       </c>
       <c r="D186" s="30" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E186" s="31" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F186" s="30"/>
       <c r="G186" s="30"/>
@@ -10640,10 +10648,10 @@
         <v>313</v>
       </c>
       <c r="D187" s="30" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E187" s="31" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F187" s="30"/>
       <c r="G187" s="30"/>
@@ -10677,10 +10685,10 @@
         <v>58</v>
       </c>
       <c r="D188" s="30" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E188" s="31" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F188" s="33"/>
       <c r="G188" s="33"/>
@@ -10714,10 +10722,10 @@
         <v>58</v>
       </c>
       <c r="D189" s="30" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E189" s="31" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" s="33"/>
@@ -10751,10 +10759,10 @@
         <v>47</v>
       </c>
       <c r="D190" s="37" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E190" s="31" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F190" s="33"/>
       <c r="G190" s="33"/>
@@ -10788,10 +10796,10 @@
         <v>58</v>
       </c>
       <c r="D191" s="30" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E191" s="31" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F191" s="33"/>
       <c r="G191" s="33"/>
@@ -10825,10 +10833,10 @@
         <v>60</v>
       </c>
       <c r="D192" s="30" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E192" s="31" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F192" s="33"/>
       <c r="G192" s="33"/>
@@ -14918,42 +14926,42 @@
   <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>410</v>
+      <c r="A1" s="42" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>411</v>
+      <c r="A2" s="42" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>412</v>
+      <c r="A3" s="42" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>413</v>
+      <c r="A4" s="42" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>414</v>
+      <c r="A5" s="42" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>415</v>
+      <c r="A6" s="42" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="42" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="42" t="s">
         <v>417</v>
       </c>
     </row>
@@ -14993,7 +15001,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>418</v>
       </c>
       <c r="B1" s="19" t="s">
@@ -15005,158 +15013,158 @@
       <c r="D1" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="45" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>423</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="48" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>423</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="47" t="s">
         <v>426</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="48" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>423</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="47" t="s">
         <v>428</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="49" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>423</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>430</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="48" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="46" t="s">
         <v>423</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="47" t="s">
         <v>432</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="49" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="46" t="s">
         <v>423</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="47" t="s">
         <v>434</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="49" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="46" t="s">
         <v>423</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="47" t="s">
         <v>436</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="49" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="46" t="s">
         <v>423</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="47" t="s">
         <v>438</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="49" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="46" t="s">
         <v>440</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="46" t="s">
         <v>423</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="48" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="46" t="s">
         <v>313</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="46" t="s">
         <v>423</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="47" t="s">
         <v>443</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="49" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D12" s="50"/>
+      <c r="D12" s="51"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="50"/>
+      <c r="D13" s="51"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -16146,7 +16154,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>79</v>

--- a/GATEWAY/A1#111#YOOMULTIMEDIAX1/YOO-Multimedia-SRL/YOOMULTIMEDIA-FSE-GATEWAY/1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#YOOMULTIMEDIAX1/YOO-Multimedia-SRL/YOOMULTIMEDIA-FSE-GATEWAY/1.0.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="446">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -470,13 +470,16 @@
 "ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", " PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE SERVIZIO DI VALIDAZIONE DEL GATEWAY A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
   </si>
   <si>
+    <t xml:space="preserve">VALIDAZIONE_LDO_TIMEOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_PSS_TIMEOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
     <t xml:space="preserve">SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_LDO_TIMEOUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_PSS_TIMEOUT</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_RAD_TIMEOUT</t>
@@ -1389,9 +1392,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAP_CT23_KO</t>
   </si>
   <si>
@@ -1416,9 +1416,6 @@
     <t xml:space="preserve">2.16.840.1.113883.2.9.2.120.4.4.a9f4347f79cf3e1cf2ff4d79eaf6d0cf8d4a82cf3fb4e942adcc54e7fc27772e.8c4dd84533^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t xml:space="preserve">Campo valorizzabile tramite selezione da un set di valori ammessi</t>
-  </si>
-  <si>
     <t xml:space="preserve">PASS</t>
   </si>
   <si>
@@ -1642,6 +1639,9 @@
   </si>
   <si>
     <t xml:space="preserve">Campo valorizzato in automatico tramite dati recuperati da servizi esterni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo valorizzabile tramite selezione da un set di valori ammessi</t>
   </si>
   <si>
     <t xml:space="preserve">L’applicativo effettua controlli preventivi sul dato inserito</t>
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="65.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="141.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="206.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -3727,11 +3727,11 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="H159" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="Q23" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A159" activeCellId="0" sqref="A159"/>
-      <selection pane="bottomRight" activeCell="K159" activeCellId="0" sqref="K159"/>
+      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="S39" activeCellId="0" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4676,15 +4676,13 @@
       <c r="R27" s="34"/>
       <c r="S27" s="34"/>
       <c r="T27" s="34"/>
-      <c r="U27" s="35" t="s">
-        <v>79</v>
-      </c>
+      <c r="U27" s="35"/>
       <c r="V27" s="36"/>
       <c r="W27" s="34" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="55.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="30" t="n">
         <v>45</v>
       </c>
@@ -4695,7 +4693,7 @@
         <v>54</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E28" s="31" t="s">
         <v>78</v>
@@ -4715,15 +4713,13 @@
       <c r="R28" s="34"/>
       <c r="S28" s="34"/>
       <c r="T28" s="34"/>
-      <c r="U28" s="35" t="s">
-        <v>79</v>
-      </c>
+      <c r="U28" s="35"/>
       <c r="V28" s="36"/>
       <c r="W28" s="34" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="30" t="n">
         <v>46</v>
       </c>
@@ -4734,7 +4730,7 @@
         <v>56</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" s="31" t="s">
         <v>78</v>
@@ -4746,17 +4742,27 @@
       <c r="J29" s="34"/>
       <c r="K29" s="34"/>
       <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
+      <c r="M29" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="N29" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
+      <c r="P29" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q29" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="R29" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="S29" s="34" t="s">
+        <v>82</v>
+      </c>
       <c r="T29" s="34"/>
-      <c r="U29" s="35" t="s">
-        <v>79</v>
-      </c>
+      <c r="U29" s="35"/>
       <c r="V29" s="36"/>
       <c r="W29" s="34" t="s">
         <v>53</v>
@@ -4773,7 +4779,7 @@
         <v>58</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>78</v>
@@ -4793,9 +4799,7 @@
       <c r="R30" s="34"/>
       <c r="S30" s="34"/>
       <c r="T30" s="34"/>
-      <c r="U30" s="35" t="s">
-        <v>79</v>
-      </c>
+      <c r="U30" s="35"/>
       <c r="V30" s="36"/>
       <c r="W30" s="34" t="s">
         <v>53</v>
@@ -4812,7 +4816,7 @@
         <v>60</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>78</v>
@@ -4832,9 +4836,7 @@
       <c r="R31" s="34"/>
       <c r="S31" s="34"/>
       <c r="T31" s="34"/>
-      <c r="U31" s="35" t="s">
-        <v>79</v>
-      </c>
+      <c r="U31" s="35"/>
       <c r="V31" s="36"/>
       <c r="W31" s="34" t="s">
         <v>53</v>
@@ -4851,7 +4853,7 @@
         <v>62</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>78</v>
@@ -4871,9 +4873,7 @@
       <c r="R32" s="34"/>
       <c r="S32" s="34"/>
       <c r="T32" s="34"/>
-      <c r="U32" s="35" t="s">
-        <v>79</v>
-      </c>
+      <c r="U32" s="35"/>
       <c r="V32" s="36"/>
       <c r="W32" s="34" t="s">
         <v>53</v>
@@ -4890,7 +4890,7 @@
         <v>64</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E33" s="31" t="s">
         <v>78</v>
@@ -4910,9 +4910,7 @@
       <c r="R33" s="34"/>
       <c r="S33" s="34"/>
       <c r="T33" s="34"/>
-      <c r="U33" s="35" t="s">
-        <v>79</v>
-      </c>
+      <c r="U33" s="35"/>
       <c r="V33" s="36"/>
       <c r="W33" s="34" t="s">
         <v>53</v>
@@ -4929,7 +4927,7 @@
         <v>66</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E34" s="31" t="s">
         <v>78</v>
@@ -4949,9 +4947,7 @@
       <c r="R34" s="34"/>
       <c r="S34" s="34"/>
       <c r="T34" s="34"/>
-      <c r="U34" s="35" t="s">
-        <v>79</v>
-      </c>
+      <c r="U34" s="35"/>
       <c r="V34" s="36"/>
       <c r="W34" s="34" t="s">
         <v>53</v>
@@ -4968,10 +4964,10 @@
         <v>47</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -5005,10 +5001,10 @@
         <v>47</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -5042,10 +5038,10 @@
         <v>47</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -5079,10 +5075,10 @@
         <v>47</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -5116,10 +5112,10 @@
         <v>47</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -5153,10 +5149,10 @@
         <v>47</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -5190,10 +5186,10 @@
         <v>47</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -5227,10 +5223,10 @@
         <v>47</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -5264,10 +5260,10 @@
         <v>54</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -5301,10 +5297,10 @@
         <v>54</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
@@ -5338,10 +5334,10 @@
         <v>54</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
@@ -5375,10 +5371,10 @@
         <v>54</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -5412,10 +5408,10 @@
         <v>54</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -5449,10 +5445,10 @@
         <v>54</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -5486,10 +5482,10 @@
         <v>54</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -5523,10 +5519,10 @@
         <v>54</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -5560,10 +5556,10 @@
         <v>54</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -5597,10 +5593,10 @@
         <v>54</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -5634,10 +5630,10 @@
         <v>58</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
@@ -5671,10 +5667,10 @@
         <v>58</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -5708,10 +5704,10 @@
         <v>58</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -5745,10 +5741,10 @@
         <v>58</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -5782,10 +5778,10 @@
         <v>58</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -5819,10 +5815,10 @@
         <v>58</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
@@ -5856,10 +5852,10 @@
         <v>58</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -5893,10 +5889,10 @@
         <v>58</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
@@ -5930,10 +5926,10 @@
         <v>58</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -5967,10 +5963,10 @@
         <v>58</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F62" s="33"/>
       <c r="G62" s="33"/>
@@ -6004,10 +6000,10 @@
         <v>58</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
@@ -6041,10 +6037,10 @@
         <v>58</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
@@ -6078,10 +6074,10 @@
         <v>58</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
@@ -6115,10 +6111,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F66" s="33"/>
       <c r="G66" s="33"/>
@@ -6152,10 +6148,10 @@
         <v>58</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F67" s="33"/>
       <c r="G67" s="33"/>
@@ -6189,10 +6185,10 @@
         <v>58</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F68" s="33"/>
       <c r="G68" s="33"/>
@@ -6226,10 +6222,10 @@
         <v>62</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
@@ -6263,10 +6259,10 @@
         <v>62</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F70" s="33"/>
       <c r="G70" s="33"/>
@@ -6300,10 +6296,10 @@
         <v>62</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
@@ -6337,10 +6333,10 @@
         <v>62</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
@@ -6374,10 +6370,10 @@
         <v>62</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
@@ -6411,10 +6407,10 @@
         <v>62</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
@@ -6448,10 +6444,10 @@
         <v>62</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
@@ -6485,10 +6481,10 @@
         <v>62</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F76" s="33"/>
       <c r="G76" s="33"/>
@@ -6522,10 +6518,10 @@
         <v>62</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F77" s="33"/>
       <c r="G77" s="33"/>
@@ -6559,10 +6555,10 @@
         <v>62</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F78" s="33"/>
       <c r="G78" s="33"/>
@@ -6596,10 +6592,10 @@
         <v>62</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
@@ -6633,10 +6629,10 @@
         <v>64</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F80" s="33"/>
       <c r="G80" s="33"/>
@@ -6670,10 +6666,10 @@
         <v>64</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F81" s="33"/>
       <c r="G81" s="33"/>
@@ -6707,10 +6703,10 @@
         <v>64</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F82" s="33"/>
       <c r="G82" s="33"/>
@@ -6744,10 +6740,10 @@
         <v>64</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
@@ -6781,10 +6777,10 @@
         <v>64</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
@@ -6818,10 +6814,10 @@
         <v>64</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
@@ -6855,10 +6851,10 @@
         <v>64</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="33"/>
@@ -6892,10 +6888,10 @@
         <v>64</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F87" s="33"/>
       <c r="G87" s="33"/>
@@ -6929,10 +6925,10 @@
         <v>64</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F88" s="33"/>
       <c r="G88" s="33"/>
@@ -6966,10 +6962,10 @@
         <v>64</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F89" s="33"/>
       <c r="G89" s="33"/>
@@ -7003,10 +6999,10 @@
         <v>64</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F90" s="33"/>
       <c r="G90" s="33"/>
@@ -7040,10 +7036,10 @@
         <v>64</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F91" s="33"/>
       <c r="G91" s="33"/>
@@ -7077,10 +7073,10 @@
         <v>64</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F92" s="33"/>
       <c r="G92" s="33"/>
@@ -7114,10 +7110,10 @@
         <v>66</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F93" s="33"/>
       <c r="G93" s="33"/>
@@ -7151,10 +7147,10 @@
         <v>66</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F94" s="33"/>
       <c r="G94" s="33"/>
@@ -7188,10 +7184,10 @@
         <v>66</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F95" s="33"/>
       <c r="G95" s="33"/>
@@ -7225,10 +7221,10 @@
         <v>66</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F96" s="33"/>
       <c r="G96" s="33"/>
@@ -7262,10 +7258,10 @@
         <v>66</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F97" s="33"/>
       <c r="G97" s="33"/>
@@ -7299,10 +7295,10 @@
         <v>66</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F98" s="33"/>
       <c r="G98" s="33"/>
@@ -7336,10 +7332,10 @@
         <v>66</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F99" s="33"/>
       <c r="G99" s="33"/>
@@ -7373,10 +7369,10 @@
         <v>66</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F100" s="33"/>
       <c r="G100" s="33"/>
@@ -7410,10 +7406,10 @@
         <v>66</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F101" s="33"/>
       <c r="G101" s="33"/>
@@ -7447,10 +7443,10 @@
         <v>66</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F102" s="33"/>
       <c r="G102" s="33"/>
@@ -7484,10 +7480,10 @@
         <v>66</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F103" s="33"/>
       <c r="G103" s="33"/>
@@ -7521,10 +7517,10 @@
         <v>66</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F104" s="33"/>
       <c r="G104" s="33"/>
@@ -7558,10 +7554,10 @@
         <v>66</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F105" s="33"/>
       <c r="G105" s="33"/>
@@ -7595,10 +7591,10 @@
         <v>66</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F106" s="33"/>
       <c r="G106" s="33"/>
@@ -7632,10 +7628,10 @@
         <v>66</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F107" s="33"/>
       <c r="G107" s="33"/>
@@ -7669,10 +7665,10 @@
         <v>66</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F108" s="33"/>
       <c r="G108" s="33"/>
@@ -7706,10 +7702,10 @@
         <v>66</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F109" s="33"/>
       <c r="G109" s="33"/>
@@ -7743,10 +7739,10 @@
         <v>66</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F110" s="33"/>
       <c r="G110" s="33"/>
@@ -7780,10 +7776,10 @@
         <v>66</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F111" s="33"/>
       <c r="G111" s="33"/>
@@ -7817,10 +7813,10 @@
         <v>66</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F112" s="33"/>
       <c r="G112" s="33"/>
@@ -7854,10 +7850,10 @@
         <v>66</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F113" s="33"/>
       <c r="G113" s="33"/>
@@ -7891,10 +7887,10 @@
         <v>66</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F114" s="33"/>
       <c r="G114" s="33"/>
@@ -7928,10 +7924,10 @@
         <v>66</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F115" s="33"/>
       <c r="G115" s="33"/>
@@ -7965,10 +7961,10 @@
         <v>60</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F116" s="33"/>
       <c r="G116" s="33"/>
@@ -8002,10 +7998,10 @@
         <v>60</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F117" s="33"/>
       <c r="G117" s="33"/>
@@ -8039,10 +8035,10 @@
         <v>60</v>
       </c>
       <c r="D118" s="30" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F118" s="33"/>
       <c r="G118" s="33"/>
@@ -8076,10 +8072,10 @@
         <v>60</v>
       </c>
       <c r="D119" s="30" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F119" s="33"/>
       <c r="G119" s="33"/>
@@ -8113,10 +8109,10 @@
         <v>60</v>
       </c>
       <c r="D120" s="30" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F120" s="33"/>
       <c r="G120" s="33"/>
@@ -8150,10 +8146,10 @@
         <v>60</v>
       </c>
       <c r="D121" s="30" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F121" s="33"/>
       <c r="G121" s="33"/>
@@ -8187,10 +8183,10 @@
         <v>60</v>
       </c>
       <c r="D122" s="30" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F122" s="33"/>
       <c r="G122" s="33"/>
@@ -8224,10 +8220,10 @@
         <v>60</v>
       </c>
       <c r="D123" s="30" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F123" s="33"/>
       <c r="G123" s="33"/>
@@ -8261,10 +8257,10 @@
         <v>60</v>
       </c>
       <c r="D124" s="30" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F124" s="33"/>
       <c r="G124" s="33"/>
@@ -8298,10 +8294,10 @@
         <v>60</v>
       </c>
       <c r="D125" s="30" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F125" s="33"/>
       <c r="G125" s="33"/>
@@ -8335,10 +8331,10 @@
         <v>60</v>
       </c>
       <c r="D126" s="30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E126" s="31" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F126" s="33"/>
       <c r="G126" s="33"/>
@@ -8372,10 +8368,10 @@
         <v>60</v>
       </c>
       <c r="D127" s="30" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F127" s="33"/>
       <c r="G127" s="33"/>
@@ -8409,10 +8405,10 @@
         <v>60</v>
       </c>
       <c r="D128" s="30" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F128" s="33"/>
       <c r="G128" s="33"/>
@@ -8446,10 +8442,10 @@
         <v>60</v>
       </c>
       <c r="D129" s="30" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E129" s="31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F129" s="33"/>
       <c r="G129" s="33"/>
@@ -8483,10 +8479,10 @@
         <v>60</v>
       </c>
       <c r="D130" s="30" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F130" s="33"/>
       <c r="G130" s="33"/>
@@ -8520,10 +8516,10 @@
         <v>56</v>
       </c>
       <c r="D131" s="30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F131" s="33"/>
       <c r="G131" s="33"/>
@@ -8557,10 +8553,10 @@
         <v>56</v>
       </c>
       <c r="D132" s="30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F132" s="33"/>
       <c r="G132" s="33"/>
@@ -8594,10 +8590,10 @@
         <v>56</v>
       </c>
       <c r="D133" s="30" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E133" s="31" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="33"/>
@@ -8631,10 +8627,10 @@
         <v>56</v>
       </c>
       <c r="D134" s="30" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E134" s="31" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="33"/>
@@ -8668,10 +8664,10 @@
         <v>56</v>
       </c>
       <c r="D135" s="30" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E135" s="31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F135" s="33"/>
       <c r="G135" s="33"/>
@@ -8705,10 +8701,10 @@
         <v>56</v>
       </c>
       <c r="D136" s="30" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E136" s="31" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
@@ -8742,10 +8738,10 @@
         <v>56</v>
       </c>
       <c r="D137" s="30" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E137" s="31" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F137" s="33"/>
       <c r="G137" s="33"/>
@@ -8779,10 +8775,10 @@
         <v>56</v>
       </c>
       <c r="D138" s="30" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E138" s="31" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F138" s="33"/>
       <c r="G138" s="33"/>
@@ -8816,10 +8812,10 @@
         <v>56</v>
       </c>
       <c r="D139" s="30" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E139" s="31" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F139" s="33"/>
       <c r="G139" s="33"/>
@@ -8853,10 +8849,10 @@
         <v>56</v>
       </c>
       <c r="D140" s="30" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E140" s="31" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F140" s="33"/>
       <c r="G140" s="33"/>
@@ -8890,10 +8886,10 @@
         <v>56</v>
       </c>
       <c r="D141" s="30" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E141" s="31" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F141" s="33"/>
       <c r="G141" s="33"/>
@@ -8927,10 +8923,10 @@
         <v>56</v>
       </c>
       <c r="D142" s="30" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E142" s="31" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F142" s="33"/>
       <c r="G142" s="33"/>
@@ -8964,10 +8960,10 @@
         <v>56</v>
       </c>
       <c r="D143" s="30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E143" s="31" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F143" s="33"/>
       <c r="G143" s="33"/>
@@ -9001,10 +8997,10 @@
         <v>56</v>
       </c>
       <c r="D144" s="30" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E144" s="31" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F144" s="33"/>
       <c r="G144" s="33"/>
@@ -9038,10 +9034,10 @@
         <v>56</v>
       </c>
       <c r="D145" s="30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E145" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F145" s="33"/>
       <c r="G145" s="33"/>
@@ -9075,10 +9071,10 @@
         <v>47</v>
       </c>
       <c r="D146" s="30" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F146" s="33"/>
       <c r="G146" s="33"/>
@@ -9112,10 +9108,10 @@
         <v>47</v>
       </c>
       <c r="D147" s="30" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E147" s="31" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F147" s="33"/>
       <c r="G147" s="33"/>
@@ -9146,13 +9142,13 @@
         <v>46</v>
       </c>
       <c r="C148" s="37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D148" s="30" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E148" s="31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F148" s="33"/>
       <c r="G148" s="33"/>
@@ -9183,13 +9179,13 @@
         <v>46</v>
       </c>
       <c r="C149" s="37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D149" s="30" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E149" s="31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F149" s="33"/>
       <c r="G149" s="33"/>
@@ -9220,13 +9216,13 @@
         <v>46</v>
       </c>
       <c r="C150" s="37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D150" s="30" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E150" s="31" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F150" s="33"/>
       <c r="G150" s="33"/>
@@ -9257,10 +9253,10 @@
         <v>46</v>
       </c>
       <c r="C151" s="37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E151" s="38" t="s">
         <v>52</v>
@@ -9294,10 +9290,10 @@
         <v>46</v>
       </c>
       <c r="C152" s="37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E152" s="38" t="s">
         <v>69</v>
@@ -9331,13 +9327,13 @@
         <v>46</v>
       </c>
       <c r="C153" s="37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D153" s="30" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E153" s="31" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F153" s="33"/>
       <c r="G153" s="33"/>
@@ -9368,13 +9364,13 @@
         <v>46</v>
       </c>
       <c r="C154" s="37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D154" s="30" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E154" s="31" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F154" s="33"/>
       <c r="G154" s="33"/>
@@ -9405,13 +9401,13 @@
         <v>46</v>
       </c>
       <c r="C155" s="37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F155" s="33"/>
       <c r="G155" s="33"/>
@@ -9442,13 +9438,13 @@
         <v>46</v>
       </c>
       <c r="C156" s="37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E156" s="31" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F156" s="33"/>
       <c r="G156" s="33"/>
@@ -9479,13 +9475,13 @@
         <v>46</v>
       </c>
       <c r="C157" s="37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D157" s="30" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E157" s="31" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F157" s="33"/>
       <c r="G157" s="33"/>
@@ -9516,13 +9512,13 @@
         <v>46</v>
       </c>
       <c r="C158" s="37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D158" s="30" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E158" s="31" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F158" s="33"/>
       <c r="G158" s="33"/>
@@ -9553,13 +9549,13 @@
         <v>46</v>
       </c>
       <c r="C159" s="37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F159" s="33"/>
       <c r="G159" s="33"/>
@@ -9590,13 +9586,13 @@
         <v>46</v>
       </c>
       <c r="C160" s="37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D160" s="30" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E160" s="31" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F160" s="33"/>
       <c r="G160" s="33"/>
@@ -9627,13 +9623,13 @@
         <v>46</v>
       </c>
       <c r="C161" s="37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E161" s="31" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F161" s="33"/>
       <c r="G161" s="33"/>
@@ -9664,20 +9660,20 @@
         <v>46</v>
       </c>
       <c r="C162" s="37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D162" s="30" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F162" s="33"/>
       <c r="G162" s="33"/>
       <c r="H162" s="33"/>
       <c r="I162" s="39"/>
       <c r="J162" s="34" t="s">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="K162" s="34"/>
       <c r="L162" s="34"/>
@@ -9703,7 +9699,7 @@
         <v>46</v>
       </c>
       <c r="C163" s="37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D163" s="30" t="s">
         <v>343</v>
@@ -9716,7 +9712,7 @@
       <c r="H163" s="33"/>
       <c r="I163" s="39"/>
       <c r="J163" s="34" t="s">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="K163" s="34"/>
       <c r="L163" s="34"/>
@@ -9763,33 +9759,31 @@
         <v>349</v>
       </c>
       <c r="J164" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="K164" s="34" t="s">
-        <v>350</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="K164" s="34"/>
       <c r="L164" s="34"/>
       <c r="M164" s="34" t="s">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="N164" s="34" t="s">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="O164" s="34"/>
       <c r="P164" s="34" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q164" s="34" t="s">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="R164" s="34" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="S164" s="34" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="T164" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U164" s="35"/>
       <c r="V164" s="36"/>
@@ -9808,51 +9802,49 @@
         <v>56</v>
       </c>
       <c r="D165" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="E165" s="31" t="s">
         <v>352</v>
-      </c>
-      <c r="E165" s="31" t="s">
-        <v>353</v>
       </c>
       <c r="F165" s="33" t="n">
         <v>45901</v>
       </c>
       <c r="G165" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="H165" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="H165" s="40" t="s">
+      <c r="I165" s="41" t="s">
         <v>355</v>
       </c>
-      <c r="I165" s="41" t="s">
-        <v>356</v>
-      </c>
       <c r="J165" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="K165" s="34" t="s">
-        <v>350</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="K165" s="34"/>
       <c r="L165" s="34"/>
       <c r="M165" s="34" t="s">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="N165" s="34" t="s">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="O165" s="34"/>
       <c r="P165" s="34" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q165" s="34" t="s">
-        <v>342</v>
+        <v>81</v>
       </c>
       <c r="R165" s="34" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="S165" s="34" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="T165" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U165" s="35"/>
       <c r="V165" s="36"/>
@@ -9871,10 +9863,10 @@
         <v>60</v>
       </c>
       <c r="D166" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="E166" s="31" t="s">
         <v>357</v>
-      </c>
-      <c r="E166" s="31" t="s">
-        <v>358</v>
       </c>
       <c r="F166" s="33"/>
       <c r="G166" s="33"/>
@@ -9908,10 +9900,10 @@
         <v>60</v>
       </c>
       <c r="D167" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="E167" s="31" t="s">
         <v>359</v>
-      </c>
-      <c r="E167" s="31" t="s">
-        <v>360</v>
       </c>
       <c r="F167" s="33"/>
       <c r="G167" s="33"/>
@@ -9945,10 +9937,10 @@
         <v>54</v>
       </c>
       <c r="D168" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="E168" s="31" t="s">
         <v>361</v>
-      </c>
-      <c r="E168" s="31" t="s">
-        <v>362</v>
       </c>
       <c r="F168" s="33"/>
       <c r="G168" s="33"/>
@@ -9982,10 +9974,10 @@
         <v>54</v>
       </c>
       <c r="D169" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="E169" s="31" t="s">
         <v>363</v>
-      </c>
-      <c r="E169" s="31" t="s">
-        <v>364</v>
       </c>
       <c r="F169" s="33"/>
       <c r="G169" s="33"/>
@@ -10019,10 +10011,10 @@
         <v>47</v>
       </c>
       <c r="D170" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="E170" s="31" t="s">
         <v>365</v>
-      </c>
-      <c r="E170" s="31" t="s">
-        <v>366</v>
       </c>
       <c r="F170" s="33"/>
       <c r="G170" s="33"/>
@@ -10056,10 +10048,10 @@
         <v>66</v>
       </c>
       <c r="D171" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="E171" s="31" t="s">
         <v>367</v>
-      </c>
-      <c r="E171" s="31" t="s">
-        <v>368</v>
       </c>
       <c r="F171" s="33"/>
       <c r="G171" s="33"/>
@@ -10093,10 +10085,10 @@
         <v>66</v>
       </c>
       <c r="D172" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="E172" s="31" t="s">
         <v>369</v>
-      </c>
-      <c r="E172" s="31" t="s">
-        <v>370</v>
       </c>
       <c r="F172" s="33"/>
       <c r="G172" s="33"/>
@@ -10130,10 +10122,10 @@
         <v>64</v>
       </c>
       <c r="D173" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="E173" s="31" t="s">
         <v>371</v>
-      </c>
-      <c r="E173" s="31" t="s">
-        <v>372</v>
       </c>
       <c r="F173" s="33"/>
       <c r="G173" s="33"/>
@@ -10167,10 +10159,10 @@
         <v>64</v>
       </c>
       <c r="D174" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="E174" s="31" t="s">
         <v>373</v>
-      </c>
-      <c r="E174" s="31" t="s">
-        <v>374</v>
       </c>
       <c r="F174" s="33"/>
       <c r="G174" s="33"/>
@@ -10204,10 +10196,10 @@
         <v>62</v>
       </c>
       <c r="D175" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="E175" s="31" t="s">
         <v>375</v>
-      </c>
-      <c r="E175" s="31" t="s">
-        <v>376</v>
       </c>
       <c r="F175" s="33"/>
       <c r="G175" s="33"/>
@@ -10241,10 +10233,10 @@
         <v>62</v>
       </c>
       <c r="D176" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="E176" s="31" t="s">
         <v>377</v>
-      </c>
-      <c r="E176" s="31" t="s">
-        <v>378</v>
       </c>
       <c r="F176" s="33"/>
       <c r="G176" s="33"/>
@@ -10275,13 +10267,13 @@
         <v>46</v>
       </c>
       <c r="C177" s="37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D177" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="E177" s="31" t="s">
         <v>379</v>
-      </c>
-      <c r="E177" s="31" t="s">
-        <v>380</v>
       </c>
       <c r="F177" s="33"/>
       <c r="G177" s="33"/>
@@ -10315,10 +10307,10 @@
         <v>60</v>
       </c>
       <c r="D178" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="E178" s="31" t="s">
         <v>381</v>
-      </c>
-      <c r="E178" s="31" t="s">
-        <v>382</v>
       </c>
       <c r="F178" s="30"/>
       <c r="G178" s="30"/>
@@ -10352,10 +10344,10 @@
         <v>58</v>
       </c>
       <c r="D179" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="E179" s="31" t="s">
         <v>383</v>
-      </c>
-      <c r="E179" s="31" t="s">
-        <v>384</v>
       </c>
       <c r="F179" s="30"/>
       <c r="G179" s="30"/>
@@ -10389,10 +10381,10 @@
         <v>66</v>
       </c>
       <c r="D180" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="E180" s="31" t="s">
         <v>385</v>
-      </c>
-      <c r="E180" s="31" t="s">
-        <v>386</v>
       </c>
       <c r="F180" s="30"/>
       <c r="G180" s="30"/>
@@ -10426,10 +10418,10 @@
         <v>62</v>
       </c>
       <c r="D181" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="E181" s="31" t="s">
         <v>387</v>
-      </c>
-      <c r="E181" s="31" t="s">
-        <v>388</v>
       </c>
       <c r="F181" s="30"/>
       <c r="G181" s="30"/>
@@ -10463,10 +10455,10 @@
         <v>64</v>
       </c>
       <c r="D182" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="E182" s="31" t="s">
         <v>389</v>
-      </c>
-      <c r="E182" s="31" t="s">
-        <v>390</v>
       </c>
       <c r="F182" s="30"/>
       <c r="G182" s="30"/>
@@ -10500,10 +10492,10 @@
         <v>47</v>
       </c>
       <c r="D183" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="E183" s="31" t="s">
         <v>391</v>
-      </c>
-      <c r="E183" s="31" t="s">
-        <v>392</v>
       </c>
       <c r="F183" s="30"/>
       <c r="G183" s="30"/>
@@ -10537,10 +10529,10 @@
         <v>54</v>
       </c>
       <c r="D184" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="E184" s="31" t="s">
         <v>393</v>
-      </c>
-      <c r="E184" s="31" t="s">
-        <v>394</v>
       </c>
       <c r="F184" s="30"/>
       <c r="G184" s="30"/>
@@ -10574,10 +10566,10 @@
         <v>60</v>
       </c>
       <c r="D185" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="E185" s="31" t="s">
         <v>395</v>
-      </c>
-      <c r="E185" s="31" t="s">
-        <v>396</v>
       </c>
       <c r="F185" s="30"/>
       <c r="G185" s="30"/>
@@ -10611,10 +10603,10 @@
         <v>56</v>
       </c>
       <c r="D186" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="E186" s="31" t="s">
         <v>397</v>
-      </c>
-      <c r="E186" s="31" t="s">
-        <v>398</v>
       </c>
       <c r="F186" s="30"/>
       <c r="G186" s="30"/>
@@ -10645,13 +10637,13 @@
         <v>46</v>
       </c>
       <c r="C187" s="37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D187" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="E187" s="31" t="s">
         <v>399</v>
-      </c>
-      <c r="E187" s="31" t="s">
-        <v>400</v>
       </c>
       <c r="F187" s="30"/>
       <c r="G187" s="30"/>
@@ -10685,10 +10677,10 @@
         <v>58</v>
       </c>
       <c r="D188" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="E188" s="31" t="s">
         <v>401</v>
-      </c>
-      <c r="E188" s="31" t="s">
-        <v>402</v>
       </c>
       <c r="F188" s="33"/>
       <c r="G188" s="33"/>
@@ -10722,10 +10714,10 @@
         <v>58</v>
       </c>
       <c r="D189" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="E189" s="31" t="s">
         <v>403</v>
-      </c>
-      <c r="E189" s="31" t="s">
-        <v>404</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" s="33"/>
@@ -10759,10 +10751,10 @@
         <v>47</v>
       </c>
       <c r="D190" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="E190" s="31" t="s">
         <v>405</v>
-      </c>
-      <c r="E190" s="31" t="s">
-        <v>406</v>
       </c>
       <c r="F190" s="33"/>
       <c r="G190" s="33"/>
@@ -10796,10 +10788,10 @@
         <v>58</v>
       </c>
       <c r="D191" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="E191" s="31" t="s">
         <v>407</v>
-      </c>
-      <c r="E191" s="31" t="s">
-        <v>408</v>
       </c>
       <c r="F191" s="33"/>
       <c r="G191" s="33"/>
@@ -10833,10 +10825,10 @@
         <v>60</v>
       </c>
       <c r="D192" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="E192" s="31" t="s">
         <v>409</v>
-      </c>
-      <c r="E192" s="31" t="s">
-        <v>410</v>
       </c>
       <c r="F192" s="33"/>
       <c r="G192" s="33"/>
@@ -14927,32 +14919,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="42" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="42" t="s">
-        <v>350</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15148,7 +15140,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="46" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B11" s="46" t="s">
         <v>423</v>
@@ -16154,10 +16146,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16165,7 +16157,7 @@
         <v>445</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>342</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/GATEWAY/A1#111#YOOMULTIMEDIAX1/YOO-Multimedia-SRL/YOOMULTIMEDIA-FSE-GATEWAY/1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#YOOMULTIMEDIAX1/YOO-Multimedia-SRL/YOOMULTIMEDIA-FSE-GATEWAY/1.0.0/report-checklist.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="446">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -359,6 +359,12 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_PSS_KO</t>
   </si>
   <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo valorizzato di default</t>
+  </si>
+  <si>
     <t xml:space="preserve">RAD</t>
   </si>
   <si>
@@ -476,9 +482,6 @@
     <t xml:space="preserve">VALIDAZIONE_PSS_TIMEOUT</t>
   </si>
   <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
     <t xml:space="preserve">SI</t>
   </si>
   <si>
@@ -1633,9 +1636,6 @@
   </si>
   <si>
     <t xml:space="preserve">Campo obbligatorio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campo valorizzato di default</t>
   </si>
   <si>
     <t xml:space="preserve">Campo valorizzato in automatico tramite dati recuperati da servizi esterni</t>
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="33.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="65.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3727,11 +3727,11 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="Q23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="O18" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="S39" activeCellId="0" sqref="S39"/>
+      <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="K29" activeCellId="0" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4147,8 +4147,12 @@
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="39"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
+      <c r="J13" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
       <c r="N13" s="34"/>
@@ -4172,10 +4176,10 @@
         <v>46</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E14" s="38" t="s">
         <v>52</v>
@@ -4209,10 +4213,10 @@
         <v>46</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E15" s="38" t="s">
         <v>52</v>
@@ -4246,10 +4250,10 @@
         <v>46</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>52</v>
@@ -4283,10 +4287,10 @@
         <v>46</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E17" s="38" t="s">
         <v>52</v>
@@ -4320,10 +4324,10 @@
         <v>46</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E18" s="38" t="s">
         <v>52</v>
@@ -4360,10 +4364,10 @@
         <v>47</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
@@ -4397,10 +4401,10 @@
         <v>54</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
@@ -4434,17 +4438,21 @@
         <v>56</v>
       </c>
       <c r="D21" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="38" t="s">
         <v>71</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>69</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
       <c r="I21" s="39"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
+      <c r="J21" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
       <c r="N21" s="34"/>
@@ -4468,13 +4476,13 @@
         <v>46</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
@@ -4505,13 +4513,13 @@
         <v>46</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
@@ -4542,13 +4550,13 @@
         <v>46</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
@@ -4579,13 +4587,13 @@
         <v>46</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
@@ -4616,13 +4624,13 @@
         <v>46</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
@@ -4656,10 +4664,10 @@
         <v>47</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
@@ -4693,10 +4701,10 @@
         <v>54</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="33"/>
@@ -4730,36 +4738,40 @@
         <v>56</v>
       </c>
       <c r="D29" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="31" t="s">
         <v>80</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>78</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
       <c r="I29" s="39"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
+      <c r="J29" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="L29" s="34"/>
       <c r="M29" s="34" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="N29" s="34" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="O29" s="34"/>
       <c r="P29" s="34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q29" s="34" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="R29" s="34" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="S29" s="34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T29" s="34"/>
       <c r="U29" s="35"/>
@@ -4776,13 +4788,13 @@
         <v>46</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
@@ -4813,13 +4825,13 @@
         <v>46</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
@@ -4850,13 +4862,13 @@
         <v>46</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
@@ -4887,13 +4899,13 @@
         <v>46</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
@@ -4924,13 +4936,13 @@
         <v>46</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
@@ -4964,10 +4976,10 @@
         <v>47</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -5001,10 +5013,10 @@
         <v>47</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -5038,10 +5050,10 @@
         <v>47</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -5075,10 +5087,10 @@
         <v>47</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -5112,10 +5124,10 @@
         <v>47</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -5149,10 +5161,10 @@
         <v>47</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -5186,10 +5198,10 @@
         <v>47</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -5223,10 +5235,10 @@
         <v>47</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -5260,10 +5272,10 @@
         <v>54</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -5297,10 +5309,10 @@
         <v>54</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
@@ -5334,10 +5346,10 @@
         <v>54</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
@@ -5371,10 +5383,10 @@
         <v>54</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -5408,10 +5420,10 @@
         <v>54</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -5445,10 +5457,10 @@
         <v>54</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -5482,10 +5494,10 @@
         <v>54</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -5519,10 +5531,10 @@
         <v>54</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -5556,10 +5568,10 @@
         <v>54</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -5593,10 +5605,10 @@
         <v>54</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -5627,13 +5639,13 @@
         <v>46</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
@@ -5664,13 +5676,13 @@
         <v>46</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -5701,13 +5713,13 @@
         <v>46</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -5738,13 +5750,13 @@
         <v>46</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -5775,13 +5787,13 @@
         <v>46</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -5812,13 +5824,13 @@
         <v>46</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
@@ -5849,13 +5861,13 @@
         <v>46</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -5886,13 +5898,13 @@
         <v>46</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
@@ -5923,13 +5935,13 @@
         <v>46</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -5960,13 +5972,13 @@
         <v>46</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F62" s="33"/>
       <c r="G62" s="33"/>
@@ -5997,13 +6009,13 @@
         <v>46</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
@@ -6034,13 +6046,13 @@
         <v>46</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
@@ -6071,13 +6083,13 @@
         <v>46</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
@@ -6108,13 +6120,13 @@
         <v>46</v>
       </c>
       <c r="C66" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F66" s="33"/>
       <c r="G66" s="33"/>
@@ -6145,13 +6157,13 @@
         <v>46</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F67" s="33"/>
       <c r="G67" s="33"/>
@@ -6182,13 +6194,13 @@
         <v>46</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F68" s="33"/>
       <c r="G68" s="33"/>
@@ -6219,13 +6231,13 @@
         <v>46</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
@@ -6256,13 +6268,13 @@
         <v>46</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F70" s="33"/>
       <c r="G70" s="33"/>
@@ -6293,13 +6305,13 @@
         <v>46</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
@@ -6330,13 +6342,13 @@
         <v>46</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
@@ -6367,13 +6379,13 @@
         <v>46</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
@@ -6404,13 +6416,13 @@
         <v>46</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
@@ -6441,13 +6453,13 @@
         <v>46</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
@@ -6478,13 +6490,13 @@
         <v>46</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F76" s="33"/>
       <c r="G76" s="33"/>
@@ -6515,13 +6527,13 @@
         <v>46</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F77" s="33"/>
       <c r="G77" s="33"/>
@@ -6552,13 +6564,13 @@
         <v>46</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F78" s="33"/>
       <c r="G78" s="33"/>
@@ -6589,13 +6601,13 @@
         <v>46</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
@@ -6626,13 +6638,13 @@
         <v>46</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F80" s="33"/>
       <c r="G80" s="33"/>
@@ -6663,13 +6675,13 @@
         <v>46</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F81" s="33"/>
       <c r="G81" s="33"/>
@@ -6700,13 +6712,13 @@
         <v>46</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F82" s="33"/>
       <c r="G82" s="33"/>
@@ -6737,13 +6749,13 @@
         <v>46</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
@@ -6774,13 +6786,13 @@
         <v>46</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
@@ -6811,13 +6823,13 @@
         <v>46</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
@@ -6848,13 +6860,13 @@
         <v>46</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="33"/>
@@ -6885,13 +6897,13 @@
         <v>46</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F87" s="33"/>
       <c r="G87" s="33"/>
@@ -6922,13 +6934,13 @@
         <v>46</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F88" s="33"/>
       <c r="G88" s="33"/>
@@ -6959,13 +6971,13 @@
         <v>46</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F89" s="33"/>
       <c r="G89" s="33"/>
@@ -6996,13 +7008,13 @@
         <v>46</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F90" s="33"/>
       <c r="G90" s="33"/>
@@ -7033,13 +7045,13 @@
         <v>46</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F91" s="33"/>
       <c r="G91" s="33"/>
@@ -7070,13 +7082,13 @@
         <v>46</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F92" s="33"/>
       <c r="G92" s="33"/>
@@ -7107,13 +7119,13 @@
         <v>46</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F93" s="33"/>
       <c r="G93" s="33"/>
@@ -7144,13 +7156,13 @@
         <v>46</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F94" s="33"/>
       <c r="G94" s="33"/>
@@ -7181,13 +7193,13 @@
         <v>46</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F95" s="33"/>
       <c r="G95" s="33"/>
@@ -7218,13 +7230,13 @@
         <v>46</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F96" s="33"/>
       <c r="G96" s="33"/>
@@ -7255,13 +7267,13 @@
         <v>46</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F97" s="33"/>
       <c r="G97" s="33"/>
@@ -7292,13 +7304,13 @@
         <v>46</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F98" s="33"/>
       <c r="G98" s="33"/>
@@ -7329,13 +7341,13 @@
         <v>46</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F99" s="33"/>
       <c r="G99" s="33"/>
@@ -7366,13 +7378,13 @@
         <v>46</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F100" s="33"/>
       <c r="G100" s="33"/>
@@ -7403,13 +7415,13 @@
         <v>46</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F101" s="33"/>
       <c r="G101" s="33"/>
@@ -7440,13 +7452,13 @@
         <v>46</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F102" s="33"/>
       <c r="G102" s="33"/>
@@ -7477,13 +7489,13 @@
         <v>46</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F103" s="33"/>
       <c r="G103" s="33"/>
@@ -7514,13 +7526,13 @@
         <v>46</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F104" s="33"/>
       <c r="G104" s="33"/>
@@ -7551,13 +7563,13 @@
         <v>46</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F105" s="33"/>
       <c r="G105" s="33"/>
@@ -7588,13 +7600,13 @@
         <v>46</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F106" s="33"/>
       <c r="G106" s="33"/>
@@ -7625,13 +7637,13 @@
         <v>46</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F107" s="33"/>
       <c r="G107" s="33"/>
@@ -7662,13 +7674,13 @@
         <v>46</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F108" s="33"/>
       <c r="G108" s="33"/>
@@ -7699,13 +7711,13 @@
         <v>46</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F109" s="33"/>
       <c r="G109" s="33"/>
@@ -7736,13 +7748,13 @@
         <v>46</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F110" s="33"/>
       <c r="G110" s="33"/>
@@ -7773,13 +7785,13 @@
         <v>46</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F111" s="33"/>
       <c r="G111" s="33"/>
@@ -7810,13 +7822,13 @@
         <v>46</v>
       </c>
       <c r="C112" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F112" s="33"/>
       <c r="G112" s="33"/>
@@ -7847,13 +7859,13 @@
         <v>46</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F113" s="33"/>
       <c r="G113" s="33"/>
@@ -7884,13 +7896,13 @@
         <v>46</v>
       </c>
       <c r="C114" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F114" s="33"/>
       <c r="G114" s="33"/>
@@ -7921,13 +7933,13 @@
         <v>46</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F115" s="33"/>
       <c r="G115" s="33"/>
@@ -7958,13 +7970,13 @@
         <v>46</v>
       </c>
       <c r="C116" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F116" s="33"/>
       <c r="G116" s="33"/>
@@ -7995,13 +8007,13 @@
         <v>46</v>
       </c>
       <c r="C117" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F117" s="33"/>
       <c r="G117" s="33"/>
@@ -8032,13 +8044,13 @@
         <v>46</v>
       </c>
       <c r="C118" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D118" s="30" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F118" s="33"/>
       <c r="G118" s="33"/>
@@ -8069,13 +8081,13 @@
         <v>46</v>
       </c>
       <c r="C119" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D119" s="30" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F119" s="33"/>
       <c r="G119" s="33"/>
@@ -8106,13 +8118,13 @@
         <v>46</v>
       </c>
       <c r="C120" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D120" s="30" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F120" s="33"/>
       <c r="G120" s="33"/>
@@ -8143,13 +8155,13 @@
         <v>46</v>
       </c>
       <c r="C121" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D121" s="30" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F121" s="33"/>
       <c r="G121" s="33"/>
@@ -8180,13 +8192,13 @@
         <v>46</v>
       </c>
       <c r="C122" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D122" s="30" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F122" s="33"/>
       <c r="G122" s="33"/>
@@ -8217,13 +8229,13 @@
         <v>46</v>
       </c>
       <c r="C123" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D123" s="30" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F123" s="33"/>
       <c r="G123" s="33"/>
@@ -8254,13 +8266,13 @@
         <v>46</v>
       </c>
       <c r="C124" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D124" s="30" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F124" s="33"/>
       <c r="G124" s="33"/>
@@ -8291,13 +8303,13 @@
         <v>46</v>
       </c>
       <c r="C125" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D125" s="30" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F125" s="33"/>
       <c r="G125" s="33"/>
@@ -8328,13 +8340,13 @@
         <v>46</v>
       </c>
       <c r="C126" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D126" s="30" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E126" s="31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F126" s="33"/>
       <c r="G126" s="33"/>
@@ -8365,13 +8377,13 @@
         <v>46</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D127" s="30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F127" s="33"/>
       <c r="G127" s="33"/>
@@ -8402,13 +8414,13 @@
         <v>46</v>
       </c>
       <c r="C128" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D128" s="30" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F128" s="33"/>
       <c r="G128" s="33"/>
@@ -8439,13 +8451,13 @@
         <v>46</v>
       </c>
       <c r="C129" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D129" s="30" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E129" s="31" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F129" s="33"/>
       <c r="G129" s="33"/>
@@ -8476,13 +8488,13 @@
         <v>46</v>
       </c>
       <c r="C130" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D130" s="30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F130" s="33"/>
       <c r="G130" s="33"/>
@@ -8516,17 +8528,21 @@
         <v>56</v>
       </c>
       <c r="D131" s="30" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F131" s="33"/>
       <c r="G131" s="33"/>
       <c r="H131" s="33"/>
       <c r="I131" s="39"/>
-      <c r="J131" s="34"/>
-      <c r="K131" s="34"/>
+      <c r="J131" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K131" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="L131" s="34"/>
       <c r="M131" s="34"/>
       <c r="N131" s="34"/>
@@ -8553,17 +8569,21 @@
         <v>56</v>
       </c>
       <c r="D132" s="30" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F132" s="33"/>
       <c r="G132" s="33"/>
       <c r="H132" s="33"/>
       <c r="I132" s="39"/>
-      <c r="J132" s="34"/>
-      <c r="K132" s="34"/>
+      <c r="J132" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K132" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="L132" s="34"/>
       <c r="M132" s="34"/>
       <c r="N132" s="34"/>
@@ -8590,17 +8610,21 @@
         <v>56</v>
       </c>
       <c r="D133" s="30" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E133" s="31" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="33"/>
       <c r="H133" s="33"/>
       <c r="I133" s="39"/>
-      <c r="J133" s="34"/>
-      <c r="K133" s="34"/>
+      <c r="J133" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K133" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="L133" s="34"/>
       <c r="M133" s="34"/>
       <c r="N133" s="34"/>
@@ -8627,17 +8651,21 @@
         <v>56</v>
       </c>
       <c r="D134" s="30" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E134" s="31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="33"/>
       <c r="H134" s="33"/>
       <c r="I134" s="39"/>
-      <c r="J134" s="34"/>
-      <c r="K134" s="34"/>
+      <c r="J134" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K134" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="L134" s="34"/>
       <c r="M134" s="34"/>
       <c r="N134" s="34"/>
@@ -8664,17 +8692,21 @@
         <v>56</v>
       </c>
       <c r="D135" s="30" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E135" s="31" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F135" s="33"/>
       <c r="G135" s="33"/>
       <c r="H135" s="33"/>
       <c r="I135" s="39"/>
-      <c r="J135" s="34"/>
-      <c r="K135" s="34"/>
+      <c r="J135" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K135" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="L135" s="34"/>
       <c r="M135" s="34"/>
       <c r="N135" s="34"/>
@@ -8701,17 +8733,21 @@
         <v>56</v>
       </c>
       <c r="D136" s="30" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E136" s="31" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
       <c r="H136" s="33"/>
       <c r="I136" s="39"/>
-      <c r="J136" s="34"/>
-      <c r="K136" s="34"/>
+      <c r="J136" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K136" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="L136" s="34"/>
       <c r="M136" s="34"/>
       <c r="N136" s="34"/>
@@ -8738,17 +8774,21 @@
         <v>56</v>
       </c>
       <c r="D137" s="30" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E137" s="31" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F137" s="33"/>
       <c r="G137" s="33"/>
       <c r="H137" s="33"/>
       <c r="I137" s="39"/>
-      <c r="J137" s="34"/>
-      <c r="K137" s="34"/>
+      <c r="J137" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K137" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="L137" s="34"/>
       <c r="M137" s="34"/>
       <c r="N137" s="34"/>
@@ -8775,17 +8815,21 @@
         <v>56</v>
       </c>
       <c r="D138" s="30" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E138" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F138" s="33"/>
       <c r="G138" s="33"/>
       <c r="H138" s="33"/>
       <c r="I138" s="39"/>
-      <c r="J138" s="34"/>
-      <c r="K138" s="34"/>
+      <c r="J138" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K138" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="L138" s="34"/>
       <c r="M138" s="34"/>
       <c r="N138" s="34"/>
@@ -8812,17 +8856,21 @@
         <v>56</v>
       </c>
       <c r="D139" s="30" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E139" s="31" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F139" s="33"/>
       <c r="G139" s="33"/>
       <c r="H139" s="33"/>
       <c r="I139" s="39"/>
-      <c r="J139" s="34"/>
-      <c r="K139" s="34"/>
+      <c r="J139" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K139" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="L139" s="34"/>
       <c r="M139" s="34"/>
       <c r="N139" s="34"/>
@@ -8849,17 +8897,21 @@
         <v>56</v>
       </c>
       <c r="D140" s="30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E140" s="31" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F140" s="33"/>
       <c r="G140" s="33"/>
       <c r="H140" s="33"/>
       <c r="I140" s="39"/>
-      <c r="J140" s="34"/>
-      <c r="K140" s="34"/>
+      <c r="J140" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K140" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="L140" s="34"/>
       <c r="M140" s="34"/>
       <c r="N140" s="34"/>
@@ -8886,17 +8938,21 @@
         <v>56</v>
       </c>
       <c r="D141" s="30" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E141" s="31" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F141" s="33"/>
       <c r="G141" s="33"/>
       <c r="H141" s="33"/>
       <c r="I141" s="39"/>
-      <c r="J141" s="34"/>
-      <c r="K141" s="34"/>
+      <c r="J141" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K141" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="L141" s="34"/>
       <c r="M141" s="34"/>
       <c r="N141" s="34"/>
@@ -8923,17 +8979,21 @@
         <v>56</v>
       </c>
       <c r="D142" s="30" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E142" s="31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F142" s="33"/>
       <c r="G142" s="33"/>
       <c r="H142" s="33"/>
       <c r="I142" s="39"/>
-      <c r="J142" s="34"/>
-      <c r="K142" s="34"/>
+      <c r="J142" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K142" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="L142" s="34"/>
       <c r="M142" s="34"/>
       <c r="N142" s="34"/>
@@ -8960,17 +9020,21 @@
         <v>56</v>
       </c>
       <c r="D143" s="30" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E143" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F143" s="33"/>
       <c r="G143" s="33"/>
       <c r="H143" s="33"/>
       <c r="I143" s="39"/>
-      <c r="J143" s="34"/>
-      <c r="K143" s="34"/>
+      <c r="J143" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K143" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="L143" s="34"/>
       <c r="M143" s="34"/>
       <c r="N143" s="34"/>
@@ -8997,17 +9061,21 @@
         <v>56</v>
       </c>
       <c r="D144" s="30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E144" s="31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F144" s="33"/>
       <c r="G144" s="33"/>
       <c r="H144" s="33"/>
       <c r="I144" s="39"/>
-      <c r="J144" s="34"/>
-      <c r="K144" s="34"/>
+      <c r="J144" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K144" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="L144" s="34"/>
       <c r="M144" s="34"/>
       <c r="N144" s="34"/>
@@ -9034,17 +9102,21 @@
         <v>56</v>
       </c>
       <c r="D145" s="30" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E145" s="31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F145" s="33"/>
       <c r="G145" s="33"/>
       <c r="H145" s="33"/>
       <c r="I145" s="39"/>
-      <c r="J145" s="34"/>
-      <c r="K145" s="34"/>
+      <c r="J145" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K145" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="L145" s="34"/>
       <c r="M145" s="34"/>
       <c r="N145" s="34"/>
@@ -9071,10 +9143,10 @@
         <v>47</v>
       </c>
       <c r="D146" s="30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F146" s="33"/>
       <c r="G146" s="33"/>
@@ -9108,10 +9180,10 @@
         <v>47</v>
       </c>
       <c r="D147" s="30" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E147" s="31" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F147" s="33"/>
       <c r="G147" s="33"/>
@@ -9142,13 +9214,13 @@
         <v>46</v>
       </c>
       <c r="C148" s="37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D148" s="30" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E148" s="31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F148" s="33"/>
       <c r="G148" s="33"/>
@@ -9179,13 +9251,13 @@
         <v>46</v>
       </c>
       <c r="C149" s="37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D149" s="30" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E149" s="31" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F149" s="33"/>
       <c r="G149" s="33"/>
@@ -9216,13 +9288,13 @@
         <v>46</v>
       </c>
       <c r="C150" s="37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D150" s="30" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E150" s="31" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F150" s="33"/>
       <c r="G150" s="33"/>
@@ -9253,10 +9325,10 @@
         <v>46</v>
       </c>
       <c r="C151" s="37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E151" s="38" t="s">
         <v>52</v>
@@ -9290,13 +9362,13 @@
         <v>46</v>
       </c>
       <c r="C152" s="37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E152" s="38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F152" s="33"/>
       <c r="G152" s="33"/>
@@ -9327,13 +9399,13 @@
         <v>46</v>
       </c>
       <c r="C153" s="37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D153" s="30" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E153" s="31" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F153" s="33"/>
       <c r="G153" s="33"/>
@@ -9364,13 +9436,13 @@
         <v>46</v>
       </c>
       <c r="C154" s="37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D154" s="30" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E154" s="31" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F154" s="33"/>
       <c r="G154" s="33"/>
@@ -9401,13 +9473,13 @@
         <v>46</v>
       </c>
       <c r="C155" s="37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F155" s="33"/>
       <c r="G155" s="33"/>
@@ -9438,13 +9510,13 @@
         <v>46</v>
       </c>
       <c r="C156" s="37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E156" s="31" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F156" s="33"/>
       <c r="G156" s="33"/>
@@ -9475,13 +9547,13 @@
         <v>46</v>
       </c>
       <c r="C157" s="37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D157" s="30" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E157" s="31" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F157" s="33"/>
       <c r="G157" s="33"/>
@@ -9512,13 +9584,13 @@
         <v>46</v>
       </c>
       <c r="C158" s="37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D158" s="30" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E158" s="31" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F158" s="33"/>
       <c r="G158" s="33"/>
@@ -9549,13 +9621,13 @@
         <v>46</v>
       </c>
       <c r="C159" s="37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E159" s="31" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F159" s="33"/>
       <c r="G159" s="33"/>
@@ -9586,13 +9658,13 @@
         <v>46</v>
       </c>
       <c r="C160" s="37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D160" s="30" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E160" s="31" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F160" s="33"/>
       <c r="G160" s="33"/>
@@ -9623,13 +9695,13 @@
         <v>46</v>
       </c>
       <c r="C161" s="37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E161" s="31" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F161" s="33"/>
       <c r="G161" s="33"/>
@@ -9660,20 +9732,20 @@
         <v>46</v>
       </c>
       <c r="C162" s="37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D162" s="30" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F162" s="33"/>
       <c r="G162" s="33"/>
       <c r="H162" s="33"/>
       <c r="I162" s="39"/>
       <c r="J162" s="34" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="K162" s="34"/>
       <c r="L162" s="34"/>
@@ -9699,20 +9771,20 @@
         <v>46</v>
       </c>
       <c r="C163" s="37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E163" s="31" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F163" s="33"/>
       <c r="G163" s="33"/>
       <c r="H163" s="33"/>
       <c r="I163" s="39"/>
       <c r="J163" s="34" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="K163" s="34"/>
       <c r="L163" s="34"/>
@@ -9741,49 +9813,49 @@
         <v>56</v>
       </c>
       <c r="D164" s="30" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E164" s="31" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F164" s="33" t="n">
         <v>45901</v>
       </c>
       <c r="G164" s="40" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H164" s="40" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I164" s="41" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J164" s="34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K164" s="34"/>
       <c r="L164" s="34"/>
       <c r="M164" s="34" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="N164" s="34" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="O164" s="34"/>
       <c r="P164" s="34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q164" s="34" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="R164" s="34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S164" s="34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T164" s="34" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U164" s="35"/>
       <c r="V164" s="36"/>
@@ -9802,49 +9874,49 @@
         <v>56</v>
       </c>
       <c r="D165" s="30" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E165" s="31" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F165" s="33" t="n">
         <v>45901</v>
       </c>
       <c r="G165" s="40" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H165" s="40" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I165" s="41" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J165" s="34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K165" s="34"/>
       <c r="L165" s="34"/>
       <c r="M165" s="34" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="N165" s="34" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="O165" s="34"/>
       <c r="P165" s="34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q165" s="34" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="R165" s="34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S165" s="34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T165" s="34" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U165" s="35"/>
       <c r="V165" s="36"/>
@@ -9860,13 +9932,13 @@
         <v>46</v>
       </c>
       <c r="C166" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D166" s="30" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E166" s="31" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F166" s="33"/>
       <c r="G166" s="33"/>
@@ -9897,13 +9969,13 @@
         <v>46</v>
       </c>
       <c r="C167" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D167" s="30" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E167" s="31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F167" s="33"/>
       <c r="G167" s="33"/>
@@ -9937,10 +10009,10 @@
         <v>54</v>
       </c>
       <c r="D168" s="30" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E168" s="31" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F168" s="33"/>
       <c r="G168" s="33"/>
@@ -9974,10 +10046,10 @@
         <v>54</v>
       </c>
       <c r="D169" s="30" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E169" s="31" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F169" s="33"/>
       <c r="G169" s="33"/>
@@ -10011,10 +10083,10 @@
         <v>47</v>
       </c>
       <c r="D170" s="30" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E170" s="31" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F170" s="33"/>
       <c r="G170" s="33"/>
@@ -10045,13 +10117,13 @@
         <v>46</v>
       </c>
       <c r="C171" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D171" s="30" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E171" s="31" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F171" s="33"/>
       <c r="G171" s="33"/>
@@ -10082,13 +10154,13 @@
         <v>46</v>
       </c>
       <c r="C172" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D172" s="30" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E172" s="31" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F172" s="33"/>
       <c r="G172" s="33"/>
@@ -10119,13 +10191,13 @@
         <v>46</v>
       </c>
       <c r="C173" s="37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D173" s="30" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E173" s="31" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F173" s="33"/>
       <c r="G173" s="33"/>
@@ -10156,13 +10228,13 @@
         <v>46</v>
       </c>
       <c r="C174" s="37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D174" s="30" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E174" s="31" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F174" s="33"/>
       <c r="G174" s="33"/>
@@ -10193,13 +10265,13 @@
         <v>46</v>
       </c>
       <c r="C175" s="37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D175" s="30" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E175" s="31" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F175" s="33"/>
       <c r="G175" s="33"/>
@@ -10230,13 +10302,13 @@
         <v>46</v>
       </c>
       <c r="C176" s="37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D176" s="30" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E176" s="31" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F176" s="33"/>
       <c r="G176" s="33"/>
@@ -10267,13 +10339,13 @@
         <v>46</v>
       </c>
       <c r="C177" s="37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D177" s="30" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E177" s="31" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F177" s="33"/>
       <c r="G177" s="33"/>
@@ -10304,13 +10376,13 @@
         <v>46</v>
       </c>
       <c r="C178" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D178" s="30" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E178" s="31" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F178" s="30"/>
       <c r="G178" s="30"/>
@@ -10341,13 +10413,13 @@
         <v>46</v>
       </c>
       <c r="C179" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D179" s="30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E179" s="31" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F179" s="30"/>
       <c r="G179" s="30"/>
@@ -10378,13 +10450,13 @@
         <v>46</v>
       </c>
       <c r="C180" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D180" s="30" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E180" s="31" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F180" s="30"/>
       <c r="G180" s="30"/>
@@ -10415,13 +10487,13 @@
         <v>46</v>
       </c>
       <c r="C181" s="37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D181" s="30" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E181" s="31" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F181" s="30"/>
       <c r="G181" s="30"/>
@@ -10452,13 +10524,13 @@
         <v>46</v>
       </c>
       <c r="C182" s="37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D182" s="30" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E182" s="31" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F182" s="30"/>
       <c r="G182" s="30"/>
@@ -10492,10 +10564,10 @@
         <v>47</v>
       </c>
       <c r="D183" s="30" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E183" s="31" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F183" s="30"/>
       <c r="G183" s="30"/>
@@ -10529,10 +10601,10 @@
         <v>54</v>
       </c>
       <c r="D184" s="30" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E184" s="31" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F184" s="30"/>
       <c r="G184" s="30"/>
@@ -10563,13 +10635,13 @@
         <v>46</v>
       </c>
       <c r="C185" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D185" s="30" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E185" s="31" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F185" s="30"/>
       <c r="G185" s="30"/>
@@ -10603,17 +10675,21 @@
         <v>56</v>
       </c>
       <c r="D186" s="30" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E186" s="31" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F186" s="30"/>
       <c r="G186" s="30"/>
       <c r="H186" s="30"/>
       <c r="I186" s="30"/>
-      <c r="J186" s="34"/>
-      <c r="K186" s="34"/>
+      <c r="J186" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="K186" s="34" t="s">
+        <v>59</v>
+      </c>
       <c r="L186" s="30"/>
       <c r="M186" s="34"/>
       <c r="N186" s="34"/>
@@ -10637,13 +10713,13 @@
         <v>46</v>
       </c>
       <c r="C187" s="37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D187" s="30" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E187" s="31" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F187" s="30"/>
       <c r="G187" s="30"/>
@@ -10674,13 +10750,13 @@
         <v>46</v>
       </c>
       <c r="C188" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D188" s="30" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E188" s="31" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F188" s="33"/>
       <c r="G188" s="33"/>
@@ -10711,13 +10787,13 @@
         <v>46</v>
       </c>
       <c r="C189" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D189" s="30" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E189" s="31" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" s="33"/>
@@ -10751,10 +10827,10 @@
         <v>47</v>
       </c>
       <c r="D190" s="37" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E190" s="31" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F190" s="33"/>
       <c r="G190" s="33"/>
@@ -10785,13 +10861,13 @@
         <v>46</v>
       </c>
       <c r="C191" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D191" s="30" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E191" s="31" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F191" s="33"/>
       <c r="G191" s="33"/>
@@ -10822,13 +10898,13 @@
         <v>46</v>
       </c>
       <c r="C192" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D192" s="30" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E192" s="31" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F192" s="33"/>
       <c r="G192" s="33"/>
@@ -14919,22 +14995,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="42" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="42" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="42" t="s">
-        <v>413</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15042,7 +15118,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="46" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>423</v>
@@ -15056,7 +15132,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>423</v>
@@ -15070,7 +15146,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>423</v>
@@ -15084,7 +15160,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B7" s="46" t="s">
         <v>423</v>
@@ -15098,7 +15174,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B8" s="46" t="s">
         <v>423</v>
@@ -15140,7 +15216,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="46" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B11" s="46" t="s">
         <v>423</v>
@@ -16146,10 +16222,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16157,7 +16233,7 @@
         <v>445</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
